--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC42F197-EA99-4617-A0F4-D0B51C758B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D300D4FE-2A69-48AE-A9D4-270C50188F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AEF4583-D74D-42AB-9770-0600D6C956F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA3030B-5B0E-47AA-8205-141F4612939E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -530,172 +530,160 @@
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>18,05%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>81,95%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>92,33%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>11,04%</t>
@@ -704,28 +692,31 @@
     <t>9,9%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>12,27%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>10,97%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,84%</t>
+    <t>87,73%</t>
   </si>
   <si>
     <t>90,1%</t>
@@ -734,7 +725,10 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>89,03%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
@@ -743,124 +737,127 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>7,27%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>9,18%</t>
@@ -869,28 +866,31 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>10,8%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>92,73%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>89,2%</t>
+    <t>89,45%</t>
   </si>
   <si>
     <t>91,99%</t>
@@ -899,49 +899,49 @@
     <t>12,44%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>11,38%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>88,62%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD7FFC-45C4-4280-850B-4D0287CFE0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A30ACB-0730-4BA2-8A6B-CA04C8917F8E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77A1F8E-3974-43E4-8D8B-1E4A4190F000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AEE28-7DAE-46F5-B1AC-8C9240C95151}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD5FC9D-2A9C-4354-81F5-8CAA0FC53FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C34EF1-3821-4017-9536-50D8F6F37429}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,7 +2985,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -2994,13 +2994,13 @@
         <v>245685</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>380</v>
@@ -3009,13 +3009,13 @@
         <v>401415</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>598617</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>678</v>
@@ -3045,13 +3045,13 @@
         <v>748975</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1274</v>
@@ -3060,13 +3060,13 @@
         <v>1347592</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3134,13 @@
         <v>134057</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3149,13 +3149,13 @@
         <v>127774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -3164,13 +3164,13 @@
         <v>261831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3185,13 @@
         <v>1942328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>1796</v>
@@ -3200,13 +3200,13 @@
         <v>1860526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3623</v>
@@ -3215,13 +3215,13 @@
         <v>3802854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3289,13 @@
         <v>26641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3304,13 +3304,13 @@
         <v>16492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3319,13 +3319,13 @@
         <v>43133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>520245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3355,13 +3355,13 @@
         <v>532648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>990</v>
@@ -3370,13 +3370,13 @@
         <v>1052893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3444,13 @@
         <v>316428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3459,13 +3459,13 @@
         <v>389951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>654</v>
@@ -3474,13 +3474,13 @@
         <v>706378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>3061190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3510,13 +3510,13 @@
         <v>3142149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5887</v>
@@ -3525,13 +3525,13 @@
         <v>6203340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1F0CAF-7FE7-4C2C-AAB8-1AAF7CB83749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC7129-DA12-4DE3-8D5D-57378897E92C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3730,13 @@
         <v>129223</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>469</v>
@@ -3745,13 +3745,13 @@
         <v>254630</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>656</v>
@@ -3760,13 +3760,13 @@
         <v>383853</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3781,13 @@
         <v>411340</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>955</v>
@@ -3796,13 +3796,13 @@
         <v>577295</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1458</v>
@@ -3811,13 +3811,13 @@
         <v>988635</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>229233</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>364</v>
@@ -3900,13 +3900,13 @@
         <v>310177</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>647</v>
@@ -3915,13 +3915,13 @@
         <v>539410</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,28 +3936,28 @@
         <v>1932789</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2556</v>
       </c>
       <c r="I8" s="7">
-        <v>1938619</v>
+        <v>1938618</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4265</v>
@@ -3966,13 +3966,13 @@
         <v>3871407</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,7 +3999,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4040,13 +4040,13 @@
         <v>61483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -4055,13 +4055,13 @@
         <v>65870</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
@@ -4070,13 +4070,13 @@
         <v>127353</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,10 +4091,10 @@
         <v>611556</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>278</v>
@@ -4201,7 +4201,7 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>944</v>
@@ -4249,7 +4249,7 @@
         <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>294</v>

--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D300D4FE-2A69-48AE-A9D4-270C50188F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA4ABE4-62C2-49EF-B696-55C321C21830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA3030B-5B0E-47AA-8205-141F4612939E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5BD0368-70ED-4D6A-A2AF-AE1B37CD7D60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,19 +197,16 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -218,31 +215,28 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>97,88%</t>
@@ -251,55 +245,55 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,10 +305,10 @@
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>24,49%</t>
@@ -323,31 +317,31 @@
     <t>22,03%</t>
   </si>
   <si>
-    <t>26,84%</t>
+    <t>27,0%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>73,16%</t>
+    <t>73,0%</t>
   </si>
   <si>
     <t>77,97%</t>
@@ -356,55 +350,52 @@
     <t>76,98%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
     <t>6,48%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>94,4%</t>
@@ -413,268 +404,271 @@
     <t>93,52%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>18,05%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>81,95%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>92,33%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -683,31 +677,28 @@
     <t>8,4%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,57%</t>
   </si>
   <si>
     <t>91,6%</t>
@@ -716,19 +707,16 @@
     <t>88,96%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>88,94%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
@@ -1353,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A30ACB-0730-4BA2-8A6B-CA04C8917F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D53095-4FA1-4063-B38F-FAFB9260A295}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1802,13 +1790,13 @@
         <v>11462</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -1817,13 +1805,13 @@
         <v>31622</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1826,13 @@
         <v>531247</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -1853,13 +1841,13 @@
         <v>464950</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>948</v>
@@ -1868,13 +1856,13 @@
         <v>996198</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1930,13 @@
         <v>190649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -1957,13 +1945,13 @@
         <v>266762</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -1972,13 +1960,13 @@
         <v>457412</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1981,13 @@
         <v>3084876</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3038</v>
@@ -2008,28 +1996,28 @@
         <v>3112436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6054</v>
       </c>
       <c r="N14" s="7">
-        <v>6197310</v>
+        <v>6197311</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2059,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2085,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AEE28-7DAE-46F5-B1AC-8C9240C95151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB94DF4-46F3-4E36-A7D4-0B9C417D54B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2216,13 @@
         <v>204684</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>307</v>
@@ -2243,13 +2231,13 @@
         <v>326373</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>496</v>
@@ -2258,13 +2246,13 @@
         <v>531056</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2267,13 @@
         <v>769959</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>935</v>
@@ -2294,28 +2282,28 @@
         <v>1006125</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1654</v>
       </c>
       <c r="N5" s="7">
-        <v>1776085</v>
+        <v>1776084</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2345,7 @@
         <v>2150</v>
       </c>
       <c r="N6" s="7">
-        <v>2307141</v>
+        <v>2307140</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2383,13 +2371,13 @@
         <v>115055</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2398,13 +2386,13 @@
         <v>92738</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>180</v>
@@ -2413,13 +2401,13 @@
         <v>207793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2422,13 @@
         <v>1844155</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1551</v>
@@ -2449,13 +2437,13 @@
         <v>1659111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3301</v>
@@ -2464,13 +2452,13 @@
         <v>3503265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2526,13 @@
         <v>32249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2553,13 +2541,13 @@
         <v>16457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2568,13 +2556,13 @@
         <v>48706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2577,13 @@
         <v>448083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>397</v>
@@ -2604,13 +2592,13 @@
         <v>441197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -2619,13 +2607,13 @@
         <v>889280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2681,13 @@
         <v>351988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>400</v>
@@ -2708,13 +2696,13 @@
         <v>435567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -2723,13 +2711,13 @@
         <v>787555</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2732,13 @@
         <v>3062196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2883</v>
@@ -2759,28 +2747,28 @@
         <v>3106434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5763</v>
       </c>
       <c r="N14" s="7">
-        <v>6168631</v>
+        <v>6168630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2810,7 @@
         <v>6479</v>
       </c>
       <c r="N15" s="7">
-        <v>6956186</v>
+        <v>6956185</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2836,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C34EF1-3821-4017-9536-50D8F6F37429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2A497-8CA3-4BDE-B067-122928D53608}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2967,13 @@
         <v>155730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -2994,13 +2982,13 @@
         <v>245685</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>380</v>
@@ -3009,13 +2997,13 @@
         <v>401415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>598617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>678</v>
@@ -3045,13 +3033,13 @@
         <v>748975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1274</v>
@@ -3060,13 +3048,13 @@
         <v>1347592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3122,13 @@
         <v>134057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3149,13 +3137,13 @@
         <v>127774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -3164,13 +3152,13 @@
         <v>261831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3173,13 @@
         <v>1942328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1796</v>
@@ -3200,13 +3188,13 @@
         <v>1860526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3623</v>
@@ -3215,13 +3203,13 @@
         <v>3802854</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3277,13 @@
         <v>26641</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3304,13 +3292,13 @@
         <v>16492</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3319,13 +3307,13 @@
         <v>43133</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3328,13 @@
         <v>520245</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3355,13 +3343,13 @@
         <v>532648</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>990</v>
@@ -3370,13 +3358,13 @@
         <v>1052893</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3432,13 @@
         <v>316428</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3459,13 +3447,13 @@
         <v>389951</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>654</v>
@@ -3474,13 +3462,13 @@
         <v>706378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3483,13 @@
         <v>3061190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3510,13 +3498,13 @@
         <v>3142149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>5887</v>
@@ -3525,13 +3513,13 @@
         <v>6203340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC7129-DA12-4DE3-8D5D-57378897E92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B1E5B0-1BBA-4FFC-9308-9553996EB1F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3718,13 @@
         <v>129223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>469</v>
@@ -3745,13 +3733,13 @@
         <v>254630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>656</v>
@@ -3760,13 +3748,13 @@
         <v>383853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3769,13 @@
         <v>411340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>955</v>
@@ -3796,13 +3784,13 @@
         <v>577295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1458</v>
@@ -3811,13 +3799,13 @@
         <v>988635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>229233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>364</v>
@@ -3900,13 +3888,13 @@
         <v>310177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>647</v>
@@ -3915,13 +3903,13 @@
         <v>539410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3924,13 @@
         <v>1932789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2556</v>
@@ -3951,13 +3939,13 @@
         <v>1938618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4265</v>
@@ -3966,13 +3954,13 @@
         <v>3871407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>61483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -4055,13 +4043,13 @@
         <v>65870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
@@ -4070,13 +4058,13 @@
         <v>127353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4079,13 @@
         <v>611556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>893</v>
@@ -4106,13 +4094,13 @@
         <v>648016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1493</v>
@@ -4121,13 +4109,13 @@
         <v>1259573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,10 +4183,10 @@
         <v>419939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -4210,13 +4198,13 @@
         <v>630677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1495</v>
@@ -4225,13 +4213,13 @@
         <v>1050616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4234,13 @@
         <v>2955685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4404</v>
@@ -4261,13 +4249,13 @@
         <v>3163929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7216</v>
@@ -4276,13 +4264,13 @@
         <v>6119614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA4ABE4-62C2-49EF-B696-55C321C21830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3CDAED4-5CC3-41D4-BB70-DE08E4E8E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5BD0368-70ED-4D6A-A2AF-AE1B37CD7D60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F775C5B-9DE0-4A0A-970E-E80D4E3EB275}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,103 +140,109 @@
     <t>3,18%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,63%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>97,88%</t>
@@ -245,55 +251,55 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,10 +311,10 @@
     <t>21,0%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>24,49%</t>
@@ -317,31 +323,31 @@
     <t>22,03%</t>
   </si>
   <si>
-    <t>27,0%</t>
+    <t>26,84%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>73,0%</t>
+    <t>73,16%</t>
   </si>
   <si>
     <t>77,97%</t>
@@ -350,52 +356,55 @@
     <t>76,98%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
+    <t>4,86%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>94,4%</t>
@@ -404,532 +413,535 @@
     <t>93,52%</t>
   </si>
   <si>
+    <t>95,14%</t>
+  </si>
+  <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D53095-4FA1-4063-B38F-FAFB9260A295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6180AC7-CB12-41DE-8FBE-07BCA0B48F6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,13 +1802,13 @@
         <v>11462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -1805,13 +1817,13 @@
         <v>31622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1838,13 @@
         <v>531247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>441</v>
@@ -1841,13 +1853,13 @@
         <v>464950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>948</v>
@@ -1856,13 +1868,13 @@
         <v>996198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1942,13 @@
         <v>190649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>259</v>
@@ -1945,13 +1957,13 @@
         <v>266762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -1960,13 +1972,13 @@
         <v>457412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1993,13 @@
         <v>3084876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3038</v>
@@ -1996,28 +2008,28 @@
         <v>3112436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6054</v>
       </c>
       <c r="N14" s="7">
-        <v>6197311</v>
+        <v>6197310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2071,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB94DF4-46F3-4E36-A7D4-0B9C417D54B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5658DD9A-52C6-4431-A4F3-88E56BED7BE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2228,13 @@
         <v>204684</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>307</v>
@@ -2231,13 +2243,13 @@
         <v>326373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>496</v>
@@ -2246,13 +2258,13 @@
         <v>531056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2279,13 @@
         <v>769959</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>935</v>
@@ -2282,28 +2294,28 @@
         <v>1006125</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1654</v>
       </c>
       <c r="N5" s="7">
-        <v>1776084</v>
+        <v>1776085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,7 +2357,7 @@
         <v>2150</v>
       </c>
       <c r="N6" s="7">
-        <v>2307140</v>
+        <v>2307141</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2371,13 +2383,13 @@
         <v>115055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2386,13 +2398,13 @@
         <v>92738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>180</v>
@@ -2401,13 +2413,13 @@
         <v>207793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2434,13 @@
         <v>1844155</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1551</v>
@@ -2437,13 +2449,13 @@
         <v>1659111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3301</v>
@@ -2452,13 +2464,13 @@
         <v>3503265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2538,13 @@
         <v>32249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2541,13 +2553,13 @@
         <v>16457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2556,13 +2568,13 @@
         <v>48706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2589,13 @@
         <v>448083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>397</v>
@@ -2592,13 +2604,13 @@
         <v>441197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -2607,13 +2619,13 @@
         <v>889280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>351988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>400</v>
@@ -2696,13 +2708,13 @@
         <v>435567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -2711,13 +2723,13 @@
         <v>787555</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2744,13 @@
         <v>3062196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2883</v>
@@ -2747,28 +2759,28 @@
         <v>3106434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5763</v>
       </c>
       <c r="N14" s="7">
-        <v>6168630</v>
+        <v>6168631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2822,7 @@
         <v>6479</v>
       </c>
       <c r="N15" s="7">
-        <v>6956185</v>
+        <v>6956186</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2824,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2A497-8CA3-4BDE-B067-122928D53608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB961FB-BD9C-4E1F-84A1-9D266BCBC443}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2979,13 @@
         <v>155730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -2982,13 +2994,13 @@
         <v>245685</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>380</v>
@@ -2997,13 +3009,13 @@
         <v>401415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3030,13 @@
         <v>598617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>678</v>
@@ -3033,13 +3045,13 @@
         <v>748975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1274</v>
@@ -3048,13 +3060,13 @@
         <v>1347592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3134,13 @@
         <v>134057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3137,13 +3149,13 @@
         <v>127774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -3152,13 +3164,13 @@
         <v>261831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3185,13 @@
         <v>1942328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1796</v>
@@ -3188,13 +3200,13 @@
         <v>1860526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3623</v>
@@ -3203,13 +3215,13 @@
         <v>3802854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3289,13 @@
         <v>26641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3292,13 +3304,13 @@
         <v>16492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3307,13 +3319,13 @@
         <v>43133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3340,13 @@
         <v>520245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3343,13 +3355,13 @@
         <v>532648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>990</v>
@@ -3358,13 +3370,13 @@
         <v>1052893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3444,13 @@
         <v>316428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3447,13 +3459,13 @@
         <v>389951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>654</v>
@@ -3462,13 +3474,13 @@
         <v>706378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3495,13 @@
         <v>3061190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3498,13 +3510,13 @@
         <v>3142149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>5887</v>
@@ -3513,10 +3525,10 @@
         <v>6203340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3575,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B1E5B0-1BBA-4FFC-9308-9553996EB1F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768441BC-6376-45F6-B06C-F96D76E4ECBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3730,13 @@
         <v>129223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>469</v>
@@ -3733,13 +3745,13 @@
         <v>254630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>656</v>
@@ -3748,13 +3760,13 @@
         <v>383853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3781,13 @@
         <v>411340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>955</v>
@@ -3784,13 +3796,13 @@
         <v>577295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1458</v>
@@ -3799,13 +3811,13 @@
         <v>988635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3885,13 @@
         <v>229233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>364</v>
@@ -3888,13 +3900,13 @@
         <v>310177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>647</v>
@@ -3903,13 +3915,13 @@
         <v>539410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,28 +3936,28 @@
         <v>1932789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2556</v>
       </c>
       <c r="I8" s="7">
-        <v>1938618</v>
+        <v>1938619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4265</v>
@@ -3954,13 +3966,13 @@
         <v>3871407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3999,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4040,13 @@
         <v>61483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -4043,13 +4055,13 @@
         <v>65870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
@@ -4058,13 +4070,13 @@
         <v>127353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>611556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>893</v>
@@ -4094,13 +4106,13 @@
         <v>648016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1493</v>
@@ -4109,13 +4121,13 @@
         <v>1259573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>419939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>944</v>
@@ -4198,13 +4210,13 @@
         <v>630677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>1495</v>
@@ -4213,13 +4225,13 @@
         <v>1050616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>2955685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>4404</v>
@@ -4249,13 +4261,13 @@
         <v>3163929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>7216</v>
@@ -4264,13 +4276,13 @@
         <v>6119614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3CDAED4-5CC3-41D4-BB70-DE08E4E8E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA5E1CC-C5FC-4B02-B05D-E622391A7A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F775C5B-9DE0-4A0A-970E-E80D4E3EB275}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{651E5130-1C8A-412C-9BBD-7902D53A2EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -740,208 +740,214 @@
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6180AC7-CB12-41DE-8FBE-07BCA0B48F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC682420-7B05-4A9A-B5E7-9514DEF83DCA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,7 +1561,7 @@
         <v>2008</v>
       </c>
       <c r="N5" s="7">
-        <v>2027371</v>
+        <v>2027370</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1606,7 +1612,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1716,7 @@
         <v>3098</v>
       </c>
       <c r="N8" s="7">
-        <v>3173743</v>
+        <v>3173742</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1761,7 +1767,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2005,7 +2011,7 @@
         <v>3038</v>
       </c>
       <c r="I14" s="7">
-        <v>3112436</v>
+        <v>3112435</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2056,7 +2062,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5658DD9A-52C6-4431-A4F3-88E56BED7BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1B52C-0AEB-41D2-9C2C-9B053B557CE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2461,7 +2467,7 @@
         <v>3301</v>
       </c>
       <c r="N8" s="7">
-        <v>3503265</v>
+        <v>3503266</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2512,7 +2518,7 @@
         <v>3481</v>
       </c>
       <c r="N9" s="7">
-        <v>3711058</v>
+        <v>3711059</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2771,7 +2777,7 @@
         <v>5763</v>
       </c>
       <c r="N14" s="7">
-        <v>6168631</v>
+        <v>6168630</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2822,7 +2828,7 @@
         <v>6479</v>
       </c>
       <c r="N15" s="7">
-        <v>6956186</v>
+        <v>6956185</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB961FB-BD9C-4E1F-84A1-9D266BCBC443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E1EE8F-4804-4E21-A0E2-F798906B8124}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3373,7 @@
         <v>990</v>
       </c>
       <c r="N11" s="7">
-        <v>1052893</v>
+        <v>1052894</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>213</v>
@@ -3418,7 +3424,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768441BC-6376-45F6-B06C-F96D76E4ECBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C736AE40-561F-4888-8384-9ECD9B745EE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3733,7 @@
         <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>129223</v>
+        <v>122507</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3742,7 +3748,7 @@
         <v>469</v>
       </c>
       <c r="I4" s="7">
-        <v>254630</v>
+        <v>229759</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3757,7 +3763,7 @@
         <v>656</v>
       </c>
       <c r="N4" s="7">
-        <v>383853</v>
+        <v>352266</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3778,7 +3784,7 @@
         <v>503</v>
       </c>
       <c r="D5" s="7">
-        <v>411340</v>
+        <v>391435</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3793,7 +3799,7 @@
         <v>955</v>
       </c>
       <c r="I5" s="7">
-        <v>577295</v>
+        <v>522303</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3808,7 +3814,7 @@
         <v>1458</v>
       </c>
       <c r="N5" s="7">
-        <v>988635</v>
+        <v>913738</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3829,7 +3835,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3850,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3865,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,7 +3888,7 @@
         <v>283</v>
       </c>
       <c r="D7" s="7">
-        <v>229233</v>
+        <v>215004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3897,7 +3903,7 @@
         <v>364</v>
       </c>
       <c r="I7" s="7">
-        <v>310177</v>
+        <v>388742</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3912,7 +3918,7 @@
         <v>647</v>
       </c>
       <c r="N7" s="7">
-        <v>539410</v>
+        <v>603746</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3933,7 +3939,7 @@
         <v>1709</v>
       </c>
       <c r="D8" s="7">
-        <v>1932789</v>
+        <v>2075323</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3948,7 +3954,7 @@
         <v>2556</v>
       </c>
       <c r="I8" s="7">
-        <v>1938619</v>
+        <v>1848403</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3963,7 +3969,7 @@
         <v>4265</v>
       </c>
       <c r="N8" s="7">
-        <v>3871407</v>
+        <v>3923726</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3984,7 +3990,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +4005,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4020,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,7 +4043,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>61483</v>
+        <v>57795</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4046,37 +4052,37 @@
         <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>65870</v>
+        <v>59907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>192</v>
       </c>
       <c r="N10" s="7">
-        <v>127353</v>
+        <v>117702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,43 +4094,43 @@
         <v>600</v>
       </c>
       <c r="D11" s="7">
-        <v>611556</v>
+        <v>588828</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>893</v>
       </c>
       <c r="I11" s="7">
-        <v>648016</v>
+        <v>600556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1493</v>
       </c>
       <c r="N11" s="7">
-        <v>1259573</v>
+        <v>1189384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>284</v>
@@ -4139,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,7 +4198,7 @@
         <v>551</v>
       </c>
       <c r="D13" s="7">
-        <v>419939</v>
+        <v>395306</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4201,37 +4207,37 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>944</v>
       </c>
       <c r="I13" s="7">
-        <v>630677</v>
+        <v>678408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1495</v>
       </c>
       <c r="N13" s="7">
-        <v>1050616</v>
+        <v>1073714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4249,46 @@
         <v>2812</v>
       </c>
       <c r="D14" s="7">
-        <v>2955685</v>
+        <v>3055586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4404</v>
       </c>
       <c r="I14" s="7">
-        <v>3163929</v>
+        <v>2971262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7216</v>
       </c>
       <c r="N14" s="7">
-        <v>6119614</v>
+        <v>6026848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4300,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4315,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3794606</v>
+        <v>3649670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4330,7 @@
         <v>8711</v>
       </c>
       <c r="N15" s="7">
-        <v>7170230</v>
+        <v>7100562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
